--- a/04_projects/orders_forecasting/other/regression_best_subsets_analysis.xlsx
+++ b/04_projects/orders_forecasting/other/regression_best_subsets_analysis.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80148956\Desktop\Upskill\github_repositories\julian\04_projects\orders_forecasting\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A180412D-FE10-4F6B-AAD5-218935BEB997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD19190-7032-425B-B6CD-A145EBA185C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FDB16EE6-0C9D-4E08-9C1C-58FEEF6F2EC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$1:$Y$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$A$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="56">
   <si>
     <t>Vars</t>
   </si>
@@ -122,6 +125,93 @@
   </si>
   <si>
     <t>Mallows Cp - Vars</t>
+  </si>
+  <si>
+    <t>Response is orders</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>user_activity_1_levels</t>
+  </si>
+  <si>
+    <t>precipitation_levels</t>
+  </si>
+  <si>
+    <t>snow_levels</t>
+  </si>
+  <si>
+    <t>abs(Mallows Cp - Vars)</t>
   </si>
 </sst>
 </file>
@@ -205,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -261,6 +351,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4058A48A-8E02-48BB-BBD2-EB8246714633}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +813,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="F2" s="6">
-        <f>ABS(E2-A2)</f>
+        <f t="shared" ref="F2:F36" si="0">ABS(E2-A2)</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="G2" s="5">
@@ -781,7 +889,7 @@
         <v>17.2</v>
       </c>
       <c r="F3" s="6">
-        <f>ABS(E3-A3)</f>
+        <f t="shared" si="0"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="G3" s="5">
@@ -857,7 +965,7 @@
         <v>15.5</v>
       </c>
       <c r="F4" s="6">
-        <f>ABS(E4-A4)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G4" s="5">
@@ -931,7 +1039,7 @@
         <v>13.7</v>
       </c>
       <c r="F5" s="6">
-        <f>ABS(E5-A5)</f>
+        <f t="shared" si="0"/>
         <v>0.69999999999999929</v>
       </c>
       <c r="G5" s="5">
@@ -999,7 +1107,7 @@
         <v>15.3</v>
       </c>
       <c r="F6" s="6">
-        <f>ABS(E6-A6)</f>
+        <f t="shared" si="0"/>
         <v>0.69999999999999929</v>
       </c>
       <c r="G6" s="5">
@@ -1073,7 +1181,7 @@
         <v>14.8</v>
       </c>
       <c r="F7" s="6">
-        <f>ABS(E7-A7)</f>
+        <f t="shared" si="0"/>
         <v>0.80000000000000071</v>
       </c>
       <c r="G7" s="5">
@@ -1143,7 +1251,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="6">
-        <f>ABS(E8-A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="5">
@@ -1221,7 +1329,7 @@
         <v>13.9</v>
       </c>
       <c r="F9" s="6">
-        <f>ABS(E9-A9)</f>
+        <f t="shared" si="0"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="G9" s="5">
@@ -1293,7 +1401,7 @@
         <v>13.7</v>
       </c>
       <c r="F10" s="6">
-        <f>ABS(E10-A10)</f>
+        <f t="shared" si="0"/>
         <v>1.3000000000000007</v>
       </c>
       <c r="G10" s="5">
@@ -1365,7 +1473,7 @@
         <v>12.4</v>
       </c>
       <c r="F11" s="6">
-        <f>ABS(E11-A11)</f>
+        <f t="shared" si="0"/>
         <v>1.5999999999999996</v>
       </c>
       <c r="G11" s="5">
@@ -1435,7 +1543,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="F12" s="6">
-        <f>ABS(E12-A12)</f>
+        <f t="shared" si="0"/>
         <v>4.6000000000000014</v>
       </c>
       <c r="G12" s="5">
@@ -1503,7 +1611,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="6">
-        <f>ABS(E13-A13)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G13" s="5">
@@ -1569,7 +1677,7 @@
         <v>20.2</v>
       </c>
       <c r="F14" s="6">
-        <f>ABS(E14-A14)</f>
+        <f t="shared" si="0"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="G14" s="5">
@@ -1635,7 +1743,7 @@
         <v>25.5</v>
       </c>
       <c r="F15" s="6">
-        <f>ABS(E15-A15)</f>
+        <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
       <c r="G15" s="5">
@@ -1699,7 +1807,7 @@
         <v>28.5</v>
       </c>
       <c r="F16" s="6">
-        <f>ABS(E16-A16)</f>
+        <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
       <c r="G16" s="5">
@@ -1763,7 +1871,7 @@
         <v>34.700000000000003</v>
       </c>
       <c r="F17" s="6">
-        <f>ABS(E17-A17)</f>
+        <f t="shared" si="0"/>
         <v>24.700000000000003</v>
       </c>
       <c r="G17" s="5">
@@ -1825,7 +1933,7 @@
         <v>34.799999999999997</v>
       </c>
       <c r="F18" s="6">
-        <f>ABS(E18-A18)</f>
+        <f t="shared" si="0"/>
         <v>24.799999999999997</v>
       </c>
       <c r="G18" s="5">
@@ -1887,7 +1995,7 @@
         <v>44.3</v>
       </c>
       <c r="F19" s="11">
-        <f>ABS(E19-A19)</f>
+        <f t="shared" si="0"/>
         <v>35.299999999999997</v>
       </c>
       <c r="G19" s="10">
@@ -1947,7 +2055,7 @@
         <v>44.3</v>
       </c>
       <c r="F20" s="6">
-        <f>ABS(E20-A20)</f>
+        <f t="shared" si="0"/>
         <v>35.299999999999997</v>
       </c>
       <c r="G20" s="5">
@@ -2007,7 +2115,7 @@
         <v>54.9</v>
       </c>
       <c r="F21" s="6">
-        <f>ABS(E21-A21)</f>
+        <f t="shared" si="0"/>
         <v>46.9</v>
       </c>
       <c r="G21" s="5">
@@ -2065,7 +2173,7 @@
         <v>60.4</v>
       </c>
       <c r="F22" s="6">
-        <f>ABS(E22-A22)</f>
+        <f t="shared" si="0"/>
         <v>52.4</v>
       </c>
       <c r="G22" s="5">
@@ -2123,7 +2231,7 @@
         <v>70.099999999999994</v>
       </c>
       <c r="F23" s="6">
-        <f>ABS(E23-A23)</f>
+        <f t="shared" si="0"/>
         <v>63.099999999999994</v>
       </c>
       <c r="G23" s="5">
@@ -2179,7 +2287,7 @@
         <v>71.3</v>
       </c>
       <c r="F24" s="6">
-        <f>ABS(E24-A24)</f>
+        <f t="shared" si="0"/>
         <v>64.3</v>
       </c>
       <c r="G24" s="5">
@@ -2235,7 +2343,7 @@
         <v>85.8</v>
       </c>
       <c r="F25" s="6">
-        <f>ABS(E25-A25)</f>
+        <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
       <c r="G25" s="5">
@@ -2289,7 +2397,7 @@
         <v>97.5</v>
       </c>
       <c r="F26" s="6">
-        <f>ABS(E26-A26)</f>
+        <f t="shared" si="0"/>
         <v>91.5</v>
       </c>
       <c r="G26" s="5">
@@ -2343,7 +2451,7 @@
         <v>113.5</v>
       </c>
       <c r="F27" s="6">
-        <f>ABS(E27-A27)</f>
+        <f t="shared" si="0"/>
         <v>108.5</v>
       </c>
       <c r="G27" s="5">
@@ -2395,7 +2503,7 @@
         <v>126.4</v>
       </c>
       <c r="F28" s="6">
-        <f>ABS(E28-A28)</f>
+        <f t="shared" si="0"/>
         <v>121.4</v>
       </c>
       <c r="G28" s="5">
@@ -2447,7 +2555,7 @@
         <v>155.69999999999999</v>
       </c>
       <c r="F29" s="6">
-        <f>ABS(E29-A29)</f>
+        <f t="shared" si="0"/>
         <v>151.69999999999999</v>
       </c>
       <c r="G29" s="5">
@@ -2497,7 +2605,7 @@
         <v>191.5</v>
       </c>
       <c r="F30" s="6">
-        <f>ABS(E30-A30)</f>
+        <f t="shared" si="0"/>
         <v>187.5</v>
       </c>
       <c r="G30" s="5">
@@ -2547,7 +2655,7 @@
         <v>234.1</v>
       </c>
       <c r="F31" s="6">
-        <f>ABS(E31-A31)</f>
+        <f t="shared" si="0"/>
         <v>231.1</v>
       </c>
       <c r="G31" s="5">
@@ -2595,7 +2703,7 @@
         <v>241.6</v>
       </c>
       <c r="F32" s="6">
-        <f>ABS(E32-A32)</f>
+        <f t="shared" si="0"/>
         <v>238.6</v>
       </c>
       <c r="G32" s="5">
@@ -2643,7 +2751,7 @@
         <v>323.89999999999998</v>
       </c>
       <c r="F33" s="6">
-        <f>ABS(E33-A33)</f>
+        <f t="shared" si="0"/>
         <v>321.89999999999998</v>
       </c>
       <c r="G33" s="5">
@@ -2689,7 +2797,7 @@
         <v>1092</v>
       </c>
       <c r="F34" s="6">
-        <f>ABS(E34-A34)</f>
+        <f t="shared" si="0"/>
         <v>1090</v>
       </c>
       <c r="G34" s="5">
@@ -2735,7 +2843,7 @@
         <v>1197.4000000000001</v>
       </c>
       <c r="F35" s="8">
-        <f>ABS(E35-A35)</f>
+        <f t="shared" si="0"/>
         <v>1196.4000000000001</v>
       </c>
       <c r="G35" s="7">
@@ -2779,7 +2887,7 @@
         <v>75992.399999999994</v>
       </c>
       <c r="F36" s="6">
-        <f>ABS(E36-A36)</f>
+        <f t="shared" si="0"/>
         <v>75991.399999999994</v>
       </c>
       <c r="G36" s="5">
@@ -2817,10 +2925,2253 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEAA064-503C-4D4C-B74A-D9B190C8E838}">
+  <dimension ref="A1:Y36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X16" sqref="W16:X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>16</v>
+      </c>
+      <c r="B2" s="23">
+        <v>93.4</v>
+      </c>
+      <c r="C2" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="23">
+        <v>15.7</v>
+      </c>
+      <c r="F2" s="23">
+        <f>ROUND(ABS(E2-A2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="23">
+        <v>562.96</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>17</v>
+      </c>
+      <c r="B3" s="23">
+        <v>93.4</v>
+      </c>
+      <c r="C3" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="23">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F3" s="23">
+        <f>ROUND(ABS(E3-A3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="23">
+        <v>562.98</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>17</v>
+      </c>
+      <c r="B4" s="23">
+        <v>93.4</v>
+      </c>
+      <c r="C4" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="23">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F4" s="23">
+        <f>ROUND(ABS(E4-A4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <v>562.99</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>14</v>
+      </c>
+      <c r="B5" s="23">
+        <v>93.4</v>
+      </c>
+      <c r="C5" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="23">
+        <v>13.5</v>
+      </c>
+      <c r="F5" s="23">
+        <f>ROUND(ABS(E5-A5),0)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="23">
+        <v>562.95000000000005</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>15</v>
+      </c>
+      <c r="B6" s="23">
+        <v>93.4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="23">
+        <v>14.1</v>
+      </c>
+      <c r="F6" s="23">
+        <f>ROUND(ABS(E6-A6),0)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="23">
+        <v>562.94000000000005</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="O6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>15</v>
+      </c>
+      <c r="B7" s="23">
+        <v>93.4</v>
+      </c>
+      <c r="C7" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="23">
+        <v>14.3</v>
+      </c>
+      <c r="F7" s="23">
+        <f>ROUND(ABS(E7-A7),0)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="23">
+        <v>562.94000000000005</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>16</v>
+      </c>
+      <c r="B8" s="23">
+        <v>93.4</v>
+      </c>
+      <c r="C8" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="23">
+        <v>15.5</v>
+      </c>
+      <c r="F8" s="23">
+        <f>ROUND(ABS(E8-A8),0)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="23">
+        <v>562.95000000000005</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>18</v>
+      </c>
+      <c r="B9" s="23">
+        <v>93.4</v>
+      </c>
+      <c r="C9" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23">
+        <v>19</v>
+      </c>
+      <c r="F9" s="23">
+        <f>ROUND(ABS(E9-A9),0)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="23">
+        <v>563.01</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>13</v>
+      </c>
+      <c r="B10" s="23">
+        <v>93.4</v>
+      </c>
+      <c r="C10" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="23">
+        <v>18.3</v>
+      </c>
+      <c r="F10" s="23">
+        <f>ROUND(ABS(E10-A10),0)</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="23">
+        <v>563.17999999999995</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>14</v>
+      </c>
+      <c r="B11" s="23">
+        <v>93.4</v>
+      </c>
+      <c r="C11" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="23">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F11" s="23">
+        <f>ROUND(ABS(E11-A11),0)</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="23">
+        <v>563.16</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="23"/>
+      <c r="O11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>13</v>
+      </c>
+      <c r="B12" s="23">
+        <v>93.4</v>
+      </c>
+      <c r="C12" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="23">
+        <v>18.8</v>
+      </c>
+      <c r="F12" s="23">
+        <f>ROUND(ABS(E12-A12),0)</f>
+        <v>6</v>
+      </c>
+      <c r="G12" s="23">
+        <v>563.19000000000005</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="23"/>
+      <c r="O12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="C13" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="23">
+        <v>23.5</v>
+      </c>
+      <c r="F13" s="23">
+        <f>ROUND(ABS(E13-A13),0)</f>
+        <v>12</v>
+      </c>
+      <c r="G13" s="23">
+        <v>563.41</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="23"/>
+      <c r="O13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>12</v>
+      </c>
+      <c r="B14" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="C14" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="23">
+        <v>25.3</v>
+      </c>
+      <c r="F14" s="23">
+        <f>ROUND(ABS(E14-A14),0)</f>
+        <v>13</v>
+      </c>
+      <c r="G14" s="23">
+        <v>563.48</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="23"/>
+      <c r="O14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>11</v>
+      </c>
+      <c r="B15" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="C15" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="23">
+        <v>30.6</v>
+      </c>
+      <c r="F15" s="23">
+        <f>ROUND(ABS(E15-A15),0)</f>
+        <v>20</v>
+      </c>
+      <c r="G15" s="23">
+        <v>563.72</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="23"/>
+      <c r="O15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>11</v>
+      </c>
+      <c r="B16" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="C16" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="23">
+        <v>31.8</v>
+      </c>
+      <c r="F16" s="23">
+        <f>ROUND(ABS(E16-A16),0)</f>
+        <v>21</v>
+      </c>
+      <c r="G16" s="23">
+        <v>563.77</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="23"/>
+      <c r="O16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7">
+        <v>93.3</v>
+      </c>
+      <c r="C17" s="7">
+        <v>93.3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>93.3</v>
+      </c>
+      <c r="E17" s="7">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F17" s="7">
+        <f>ROUND(ABS(E17-A17),0)</f>
+        <v>29</v>
+      </c>
+      <c r="G17" s="7">
+        <v>564.1</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>10</v>
+      </c>
+      <c r="B18" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="C18" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="23">
+        <v>40.1</v>
+      </c>
+      <c r="F18" s="23">
+        <f>ROUND(ABS(E18-A18),0)</f>
+        <v>30</v>
+      </c>
+      <c r="G18" s="23">
+        <v>564.13</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="23"/>
+      <c r="O18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>9</v>
+      </c>
+      <c r="B19" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="C19" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D19" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="E19" s="23">
+        <v>48.8</v>
+      </c>
+      <c r="F19" s="23">
+        <f>ROUND(ABS(E19-A19),0)</f>
+        <v>40</v>
+      </c>
+      <c r="G19" s="23">
+        <v>564.5</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="23"/>
+      <c r="O19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>9</v>
+      </c>
+      <c r="B20" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="C20" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D20" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="E20" s="23">
+        <v>49.5</v>
+      </c>
+      <c r="F20" s="23">
+        <f>ROUND(ABS(E20-A20),0)</f>
+        <v>41</v>
+      </c>
+      <c r="G20" s="23">
+        <v>564.52</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="23"/>
+      <c r="O20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="7"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
+        <v>8</v>
+      </c>
+      <c r="B21" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="C21" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D21" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="E21" s="23">
+        <v>58.8</v>
+      </c>
+      <c r="F21" s="23">
+        <f>ROUND(ABS(E21-A21),0)</f>
+        <v>51</v>
+      </c>
+      <c r="G21" s="23">
+        <v>564.91999999999996</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="23"/>
+      <c r="O21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>8</v>
+      </c>
+      <c r="B22" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="C22" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D22" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="E22" s="23">
+        <v>69.2</v>
+      </c>
+      <c r="F22" s="23">
+        <f>ROUND(ABS(E22-A22),0)</f>
+        <v>61</v>
+      </c>
+      <c r="G22" s="23">
+        <v>565.32000000000005</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="23"/>
+      <c r="O22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>7</v>
+      </c>
+      <c r="B23" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="C23" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D23" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="E23" s="23">
+        <v>78.5</v>
+      </c>
+      <c r="F23" s="23">
+        <f>ROUND(ABS(E23-A23),0)</f>
+        <v>72</v>
+      </c>
+      <c r="G23" s="23">
+        <v>565.71</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="23"/>
+      <c r="O23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>7</v>
+      </c>
+      <c r="B24" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="C24" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D24" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="E24" s="23">
+        <v>87.7</v>
+      </c>
+      <c r="F24" s="23">
+        <f>ROUND(ABS(E24-A24),0)</f>
+        <v>81</v>
+      </c>
+      <c r="G24" s="23">
+        <v>566.05999999999995</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="23"/>
+      <c r="O24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>6</v>
+      </c>
+      <c r="B25" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="C25" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D25" s="23">
+        <v>93.2</v>
+      </c>
+      <c r="E25" s="23">
+        <v>105.4</v>
+      </c>
+      <c r="F25" s="23">
+        <f>ROUND(ABS(E25-A25),0)</f>
+        <v>99</v>
+      </c>
+      <c r="G25" s="23">
+        <v>566.78</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="23"/>
+      <c r="O25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>6</v>
+      </c>
+      <c r="B26" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="C26" s="23">
+        <v>93.3</v>
+      </c>
+      <c r="D26" s="23">
+        <v>93.2</v>
+      </c>
+      <c r="E26" s="23">
+        <v>105.7</v>
+      </c>
+      <c r="F26" s="23">
+        <f>ROUND(ABS(E26-A26),0)</f>
+        <v>100</v>
+      </c>
+      <c r="G26" s="23">
+        <v>566.79</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="23"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>5</v>
+      </c>
+      <c r="B27" s="23">
+        <v>93.2</v>
+      </c>
+      <c r="C27" s="23">
+        <v>93.2</v>
+      </c>
+      <c r="D27" s="23">
+        <v>93.2</v>
+      </c>
+      <c r="E27" s="23">
+        <v>132.9</v>
+      </c>
+      <c r="F27" s="23">
+        <f>ROUND(ABS(E27-A27),0)</f>
+        <v>128</v>
+      </c>
+      <c r="G27" s="23">
+        <v>567.86</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="23"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>5</v>
+      </c>
+      <c r="B28" s="23">
+        <v>93.2</v>
+      </c>
+      <c r="C28" s="23">
+        <v>93.2</v>
+      </c>
+      <c r="D28" s="23">
+        <v>93.2</v>
+      </c>
+      <c r="E28" s="23">
+        <v>148.6</v>
+      </c>
+      <c r="F28" s="23">
+        <f>ROUND(ABS(E28-A28),0)</f>
+        <v>144</v>
+      </c>
+      <c r="G28" s="23">
+        <v>568.46</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
+        <v>4</v>
+      </c>
+      <c r="B29" s="23">
+        <v>93.2</v>
+      </c>
+      <c r="C29" s="23">
+        <v>93.2</v>
+      </c>
+      <c r="D29" s="23">
+        <v>93.2</v>
+      </c>
+      <c r="E29" s="23">
+        <v>184.4</v>
+      </c>
+      <c r="F29" s="23">
+        <f>ROUND(ABS(E29-A29),0)</f>
+        <v>180</v>
+      </c>
+      <c r="G29" s="23">
+        <v>569.85</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <v>4</v>
+      </c>
+      <c r="B30" s="23">
+        <v>93.2</v>
+      </c>
+      <c r="C30" s="23">
+        <v>93.2</v>
+      </c>
+      <c r="D30" s="23">
+        <v>93.1</v>
+      </c>
+      <c r="E30" s="23">
+        <v>218</v>
+      </c>
+      <c r="F30" s="23">
+        <f>ROUND(ABS(E30-A30),0)</f>
+        <v>214</v>
+      </c>
+      <c r="G30" s="23">
+        <v>571.13</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="23"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
+        <v>3</v>
+      </c>
+      <c r="B31" s="23">
+        <v>93.1</v>
+      </c>
+      <c r="C31" s="23">
+        <v>93.1</v>
+      </c>
+      <c r="D31" s="23">
+        <v>93.1</v>
+      </c>
+      <c r="E31" s="23">
+        <v>270.7</v>
+      </c>
+      <c r="F31" s="23">
+        <f>ROUND(ABS(E31-A31),0)</f>
+        <v>268</v>
+      </c>
+      <c r="G31" s="23">
+        <v>573.15</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>3</v>
+      </c>
+      <c r="B32" s="23">
+        <v>93.1</v>
+      </c>
+      <c r="C32" s="23">
+        <v>93.1</v>
+      </c>
+      <c r="D32" s="23">
+        <v>93.1</v>
+      </c>
+      <c r="E32" s="23">
+        <v>286.10000000000002</v>
+      </c>
+      <c r="F32" s="23">
+        <f>ROUND(ABS(E32-A32),0)</f>
+        <v>283</v>
+      </c>
+      <c r="G32" s="23">
+        <v>573.73</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <v>2</v>
+      </c>
+      <c r="B33" s="23">
+        <v>93</v>
+      </c>
+      <c r="C33" s="23">
+        <v>93</v>
+      </c>
+      <c r="D33" s="23">
+        <v>93</v>
+      </c>
+      <c r="E33" s="23">
+        <v>376.5</v>
+      </c>
+      <c r="F33" s="23">
+        <f>ROUND(ABS(E33-A33),0)</f>
+        <v>375</v>
+      </c>
+      <c r="G33" s="23">
+        <v>577.16</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
+        <v>2</v>
+      </c>
+      <c r="B34" s="23">
+        <v>92.3</v>
+      </c>
+      <c r="C34" s="23">
+        <v>92.3</v>
+      </c>
+      <c r="D34" s="23">
+        <v>92.3</v>
+      </c>
+      <c r="E34" s="23">
+        <v>1153.7</v>
+      </c>
+      <c r="F34" s="23">
+        <f>ROUND(ABS(E34-A34),0)</f>
+        <v>1152</v>
+      </c>
+      <c r="G34" s="23">
+        <v>605.54999999999995</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
+        <v>1</v>
+      </c>
+      <c r="B35" s="23">
+        <v>92.2</v>
+      </c>
+      <c r="C35" s="23">
+        <v>92.2</v>
+      </c>
+      <c r="D35" s="23">
+        <v>92.2</v>
+      </c>
+      <c r="E35" s="23">
+        <v>1259.8</v>
+      </c>
+      <c r="F35" s="23">
+        <f>ROUND(ABS(E35-A35),0)</f>
+        <v>1259</v>
+      </c>
+      <c r="G35" s="23">
+        <v>609.36</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
+        <v>1</v>
+      </c>
+      <c r="B36" s="23">
+        <v>23.7</v>
+      </c>
+      <c r="C36" s="23">
+        <v>23.7</v>
+      </c>
+      <c r="D36" s="23">
+        <v>23.6</v>
+      </c>
+      <c r="E36" s="23">
+        <v>76868.100000000006</v>
+      </c>
+      <c r="F36" s="23">
+        <f>ROUND(ABS(E36-A36),0)</f>
+        <v>76867</v>
+      </c>
+      <c r="G36" s="23">
+        <v>1907.2</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Y29" xr:uid="{4058A48A-8E02-48BB-BBD2-EB8246714633}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y36">
+      <sortCondition ref="F1:F29"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4D1809-9720-4FF7-A8D5-61D0E1E78167}">
   <dimension ref="A1:A16378"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -52005,4 +54356,2566 @@
   <autoFilter ref="A1:A19" xr:uid="{BA4D1809-9720-4FF7-A8D5-61D0E1E78167}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9CD5AA-039D-46E6-95A7-2E2C67CFB843}">
+  <dimension ref="A2:AA61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:AA61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V12" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15" t="s">
+        <v>37</v>
+      </c>
+      <c r="X15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" t="s">
+        <v>42</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>46</v>
+      </c>
+      <c r="W18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>49</v>
+      </c>
+      <c r="W19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>46</v>
+      </c>
+      <c r="W20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>29</v>
+      </c>
+      <c r="W21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>42</v>
+      </c>
+      <c r="W22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W24" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>92.2</v>
+      </c>
+      <c r="E25">
+        <v>92.2</v>
+      </c>
+      <c r="F25">
+        <v>92.2</v>
+      </c>
+      <c r="G25">
+        <v>1379.2</v>
+      </c>
+      <c r="H25">
+        <v>609.36</v>
+      </c>
+      <c r="X25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>23.7</v>
+      </c>
+      <c r="E26">
+        <v>23.7</v>
+      </c>
+      <c r="F26">
+        <v>23.6</v>
+      </c>
+      <c r="G26">
+        <v>78037.5</v>
+      </c>
+      <c r="H26">
+        <v>1907.2</v>
+      </c>
+      <c r="W26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>93</v>
+      </c>
+      <c r="F27">
+        <v>93</v>
+      </c>
+      <c r="G27">
+        <v>483.6</v>
+      </c>
+      <c r="H27">
+        <v>577.16</v>
+      </c>
+      <c r="W27" t="s">
+        <v>6</v>
+      </c>
+      <c r="X27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>92.3</v>
+      </c>
+      <c r="E28">
+        <v>92.3</v>
+      </c>
+      <c r="F28">
+        <v>92.3</v>
+      </c>
+      <c r="G28">
+        <v>1261.8</v>
+      </c>
+      <c r="H28">
+        <v>605.21</v>
+      </c>
+      <c r="L28" t="s">
+        <v>6</v>
+      </c>
+      <c r="X28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>93.1</v>
+      </c>
+      <c r="E29">
+        <v>93.1</v>
+      </c>
+      <c r="F29">
+        <v>93.1</v>
+      </c>
+      <c r="G29">
+        <v>376.3</v>
+      </c>
+      <c r="H29">
+        <v>573.15</v>
+      </c>
+      <c r="V29" t="s">
+        <v>6</v>
+      </c>
+      <c r="W29" t="s">
+        <v>6</v>
+      </c>
+      <c r="X29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>93.1</v>
+      </c>
+      <c r="E30">
+        <v>93.1</v>
+      </c>
+      <c r="F30">
+        <v>93.1</v>
+      </c>
+      <c r="G30">
+        <v>389.1</v>
+      </c>
+      <c r="H30">
+        <v>573.63</v>
+      </c>
+      <c r="L30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>93.2</v>
+      </c>
+      <c r="E31">
+        <v>93.2</v>
+      </c>
+      <c r="F31">
+        <v>93.2</v>
+      </c>
+      <c r="G31">
+        <v>288</v>
+      </c>
+      <c r="H31">
+        <v>569.83000000000004</v>
+      </c>
+      <c r="L31" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" t="s">
+        <v>6</v>
+      </c>
+      <c r="W31" t="s">
+        <v>6</v>
+      </c>
+      <c r="X31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>93.2</v>
+      </c>
+      <c r="E32">
+        <v>93.2</v>
+      </c>
+      <c r="F32">
+        <v>93.2</v>
+      </c>
+      <c r="G32">
+        <v>288.8</v>
+      </c>
+      <c r="H32">
+        <v>569.85</v>
+      </c>
+      <c r="V32" t="s">
+        <v>6</v>
+      </c>
+      <c r="W32" t="s">
+        <v>6</v>
+      </c>
+      <c r="X32" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>93.3</v>
+      </c>
+      <c r="E33">
+        <v>93.3</v>
+      </c>
+      <c r="F33">
+        <v>93.3</v>
+      </c>
+      <c r="G33">
+        <v>194.4</v>
+      </c>
+      <c r="H33">
+        <v>566.28</v>
+      </c>
+      <c r="L33" t="s">
+        <v>6</v>
+      </c>
+      <c r="V33" t="s">
+        <v>6</v>
+      </c>
+      <c r="W33" t="s">
+        <v>6</v>
+      </c>
+      <c r="X33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>93.2</v>
+      </c>
+      <c r="E34">
+        <v>93.2</v>
+      </c>
+      <c r="F34">
+        <v>93.2</v>
+      </c>
+      <c r="G34">
+        <v>230.2</v>
+      </c>
+      <c r="H34">
+        <v>567.62</v>
+      </c>
+      <c r="L34" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" t="s">
+        <v>6</v>
+      </c>
+      <c r="V34" t="s">
+        <v>6</v>
+      </c>
+      <c r="W34" t="s">
+        <v>6</v>
+      </c>
+      <c r="X34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>93.3</v>
+      </c>
+      <c r="E35">
+        <v>93.3</v>
+      </c>
+      <c r="F35">
+        <v>93.3</v>
+      </c>
+      <c r="G35">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="H35">
+        <v>564.1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" t="s">
+        <v>6</v>
+      </c>
+      <c r="V35" t="s">
+        <v>6</v>
+      </c>
+      <c r="W35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>93.3</v>
+      </c>
+      <c r="E36">
+        <v>93.3</v>
+      </c>
+      <c r="F36">
+        <v>93.3</v>
+      </c>
+      <c r="G36">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="H36">
+        <v>564.65</v>
+      </c>
+      <c r="L36" t="s">
+        <v>6</v>
+      </c>
+      <c r="R36" t="s">
+        <v>6</v>
+      </c>
+      <c r="V36" t="s">
+        <v>6</v>
+      </c>
+      <c r="W36" t="s">
+        <v>6</v>
+      </c>
+      <c r="X36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>93.4</v>
+      </c>
+      <c r="E37">
+        <v>93.3</v>
+      </c>
+      <c r="F37">
+        <v>93.3</v>
+      </c>
+      <c r="G37">
+        <v>109.1</v>
+      </c>
+      <c r="H37">
+        <v>562.98</v>
+      </c>
+      <c r="L37" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>6</v>
+      </c>
+      <c r="V37" t="s">
+        <v>6</v>
+      </c>
+      <c r="W37" t="s">
+        <v>6</v>
+      </c>
+      <c r="X37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>93.4</v>
+      </c>
+      <c r="E38">
+        <v>93.3</v>
+      </c>
+      <c r="F38">
+        <v>93.3</v>
+      </c>
+      <c r="G38">
+        <v>109.5</v>
+      </c>
+      <c r="H38">
+        <v>563</v>
+      </c>
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" t="s">
+        <v>6</v>
+      </c>
+      <c r="V38" t="s">
+        <v>6</v>
+      </c>
+      <c r="W38" t="s">
+        <v>6</v>
+      </c>
+      <c r="X38" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>93.4</v>
+      </c>
+      <c r="E39">
+        <v>93.4</v>
+      </c>
+      <c r="F39">
+        <v>93.4</v>
+      </c>
+      <c r="G39">
+        <v>81.2</v>
+      </c>
+      <c r="H39">
+        <v>561.89</v>
+      </c>
+      <c r="I39" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>6</v>
+      </c>
+      <c r="V39" t="s">
+        <v>6</v>
+      </c>
+      <c r="W39" t="s">
+        <v>6</v>
+      </c>
+      <c r="X39" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>93.4</v>
+      </c>
+      <c r="E40">
+        <v>93.4</v>
+      </c>
+      <c r="F40">
+        <v>93.3</v>
+      </c>
+      <c r="G40">
+        <v>90.4</v>
+      </c>
+      <c r="H40">
+        <v>562.24</v>
+      </c>
+      <c r="L40" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T40" t="s">
+        <v>6</v>
+      </c>
+      <c r="V40" t="s">
+        <v>6</v>
+      </c>
+      <c r="W40" t="s">
+        <v>6</v>
+      </c>
+      <c r="X40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>93.4</v>
+      </c>
+      <c r="E41">
+        <v>93.4</v>
+      </c>
+      <c r="F41">
+        <v>93.4</v>
+      </c>
+      <c r="G41">
+        <v>62.5</v>
+      </c>
+      <c r="H41">
+        <v>561.14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>6</v>
+      </c>
+      <c r="T41" t="s">
+        <v>6</v>
+      </c>
+      <c r="V41" t="s">
+        <v>6</v>
+      </c>
+      <c r="W41" t="s">
+        <v>6</v>
+      </c>
+      <c r="X41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>93.4</v>
+      </c>
+      <c r="E42">
+        <v>93.4</v>
+      </c>
+      <c r="F42">
+        <v>93.4</v>
+      </c>
+      <c r="G42">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="H42">
+        <v>561.32000000000005</v>
+      </c>
+      <c r="I42" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" t="s">
+        <v>6</v>
+      </c>
+      <c r="O42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>6</v>
+      </c>
+      <c r="R42" t="s">
+        <v>6</v>
+      </c>
+      <c r="V42" t="s">
+        <v>6</v>
+      </c>
+      <c r="W42" t="s">
+        <v>6</v>
+      </c>
+      <c r="X42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>93.4</v>
+      </c>
+      <c r="E43">
+        <v>93.4</v>
+      </c>
+      <c r="F43">
+        <v>93.4</v>
+      </c>
+      <c r="G43">
+        <v>49.5</v>
+      </c>
+      <c r="H43">
+        <v>560.61</v>
+      </c>
+      <c r="I43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L43" t="s">
+        <v>6</v>
+      </c>
+      <c r="O43" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>6</v>
+      </c>
+      <c r="R43" t="s">
+        <v>6</v>
+      </c>
+      <c r="T43" t="s">
+        <v>6</v>
+      </c>
+      <c r="V43" t="s">
+        <v>6</v>
+      </c>
+      <c r="W43" t="s">
+        <v>6</v>
+      </c>
+      <c r="X43" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>93.4</v>
+      </c>
+      <c r="E44">
+        <v>93.4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>53.4</v>
+      </c>
+      <c r="H44">
+        <v>560.76</v>
+      </c>
+      <c r="I44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>6</v>
+      </c>
+      <c r="T44" t="s">
+        <v>6</v>
+      </c>
+      <c r="U44" t="s">
+        <v>6</v>
+      </c>
+      <c r="V44" t="s">
+        <v>6</v>
+      </c>
+      <c r="W44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>93.4</v>
+      </c>
+      <c r="E45">
+        <v>93.4</v>
+      </c>
+      <c r="F45">
+        <v>93.4</v>
+      </c>
+      <c r="G45">
+        <v>39.5</v>
+      </c>
+      <c r="H45">
+        <v>560.19000000000005</v>
+      </c>
+      <c r="I45" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>6</v>
+      </c>
+      <c r="R45" t="s">
+        <v>6</v>
+      </c>
+      <c r="T45" t="s">
+        <v>6</v>
+      </c>
+      <c r="V45" t="s">
+        <v>6</v>
+      </c>
+      <c r="W45" t="s">
+        <v>6</v>
+      </c>
+      <c r="X45" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>93.4</v>
+      </c>
+      <c r="E46">
+        <v>93.4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46">
+        <v>40.5</v>
+      </c>
+      <c r="H46">
+        <v>560.23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>6</v>
+      </c>
+      <c r="R46" t="s">
+        <v>6</v>
+      </c>
+      <c r="T46" t="s">
+        <v>6</v>
+      </c>
+      <c r="U46" t="s">
+        <v>6</v>
+      </c>
+      <c r="V46" t="s">
+        <v>6</v>
+      </c>
+      <c r="W46" t="s">
+        <v>6</v>
+      </c>
+      <c r="X46" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>93.4</v>
+      </c>
+      <c r="E47">
+        <v>93.4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <v>30.5</v>
+      </c>
+      <c r="H47">
+        <v>559.80999999999995</v>
+      </c>
+      <c r="I47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>6</v>
+      </c>
+      <c r="R47" t="s">
+        <v>6</v>
+      </c>
+      <c r="T47" t="s">
+        <v>6</v>
+      </c>
+      <c r="U47" t="s">
+        <v>6</v>
+      </c>
+      <c r="V47" t="s">
+        <v>6</v>
+      </c>
+      <c r="W47" t="s">
+        <v>6</v>
+      </c>
+      <c r="X47" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>93.4</v>
+      </c>
+      <c r="E48">
+        <v>93.4</v>
+      </c>
+      <c r="F48">
+        <v>93.4</v>
+      </c>
+      <c r="G48">
+        <v>32.1</v>
+      </c>
+      <c r="H48">
+        <v>559.87</v>
+      </c>
+      <c r="I48" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" t="s">
+        <v>6</v>
+      </c>
+      <c r="O48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>6</v>
+      </c>
+      <c r="R48" t="s">
+        <v>6</v>
+      </c>
+      <c r="T48" t="s">
+        <v>6</v>
+      </c>
+      <c r="V48" t="s">
+        <v>6</v>
+      </c>
+      <c r="W48" t="s">
+        <v>6</v>
+      </c>
+      <c r="X48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>93.4</v>
+      </c>
+      <c r="E49">
+        <v>93.4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>23.1</v>
+      </c>
+      <c r="H49">
+        <v>559.49</v>
+      </c>
+      <c r="I49" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>6</v>
+      </c>
+      <c r="R49" t="s">
+        <v>6</v>
+      </c>
+      <c r="T49" t="s">
+        <v>6</v>
+      </c>
+      <c r="U49" t="s">
+        <v>6</v>
+      </c>
+      <c r="V49" t="s">
+        <v>6</v>
+      </c>
+      <c r="W49" t="s">
+        <v>6</v>
+      </c>
+      <c r="X49" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>93.4</v>
+      </c>
+      <c r="E50">
+        <v>93.4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <v>24.8</v>
+      </c>
+      <c r="H50">
+        <v>559.54999999999995</v>
+      </c>
+      <c r="I50" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" t="s">
+        <v>6</v>
+      </c>
+      <c r="N50" t="s">
+        <v>6</v>
+      </c>
+      <c r="O50" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>6</v>
+      </c>
+      <c r="R50" t="s">
+        <v>6</v>
+      </c>
+      <c r="T50" t="s">
+        <v>6</v>
+      </c>
+      <c r="U50" t="s">
+        <v>6</v>
+      </c>
+      <c r="V50" t="s">
+        <v>6</v>
+      </c>
+      <c r="W50" t="s">
+        <v>6</v>
+      </c>
+      <c r="X50" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>93.4</v>
+      </c>
+      <c r="E51">
+        <v>93.4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H51">
+        <v>559.23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" t="s">
+        <v>6</v>
+      </c>
+      <c r="N51" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>6</v>
+      </c>
+      <c r="R51" t="s">
+        <v>6</v>
+      </c>
+      <c r="T51" t="s">
+        <v>6</v>
+      </c>
+      <c r="U51" t="s">
+        <v>6</v>
+      </c>
+      <c r="V51" t="s">
+        <v>6</v>
+      </c>
+      <c r="W51" t="s">
+        <v>6</v>
+      </c>
+      <c r="X51" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>93.4</v>
+      </c>
+      <c r="E52">
+        <v>93.4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <v>19.2</v>
+      </c>
+      <c r="H52">
+        <v>559.29999999999995</v>
+      </c>
+      <c r="I52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" t="s">
+        <v>6</v>
+      </c>
+      <c r="O52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>6</v>
+      </c>
+      <c r="R52" t="s">
+        <v>6</v>
+      </c>
+      <c r="T52" t="s">
+        <v>6</v>
+      </c>
+      <c r="U52" t="s">
+        <v>6</v>
+      </c>
+      <c r="V52" t="s">
+        <v>6</v>
+      </c>
+      <c r="W52" t="s">
+        <v>6</v>
+      </c>
+      <c r="X52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>93.5</v>
+      </c>
+      <c r="E53">
+        <v>93.4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>13.9</v>
+      </c>
+      <c r="H53">
+        <v>559.05999999999995</v>
+      </c>
+      <c r="I53" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53" t="s">
+        <v>6</v>
+      </c>
+      <c r="N53" t="s">
+        <v>6</v>
+      </c>
+      <c r="O53" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>6</v>
+      </c>
+      <c r="R53" t="s">
+        <v>6</v>
+      </c>
+      <c r="T53" t="s">
+        <v>6</v>
+      </c>
+      <c r="U53" t="s">
+        <v>6</v>
+      </c>
+      <c r="V53" t="s">
+        <v>6</v>
+      </c>
+      <c r="W53" t="s">
+        <v>6</v>
+      </c>
+      <c r="X53" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>93.4</v>
+      </c>
+      <c r="E54">
+        <v>93.4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>18.2</v>
+      </c>
+      <c r="H54">
+        <v>559.22</v>
+      </c>
+      <c r="I54" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" t="s">
+        <v>6</v>
+      </c>
+      <c r="N54" t="s">
+        <v>6</v>
+      </c>
+      <c r="O54" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>6</v>
+      </c>
+      <c r="R54" t="s">
+        <v>6</v>
+      </c>
+      <c r="T54" t="s">
+        <v>6</v>
+      </c>
+      <c r="U54" t="s">
+        <v>6</v>
+      </c>
+      <c r="V54" t="s">
+        <v>6</v>
+      </c>
+      <c r="W54" t="s">
+        <v>6</v>
+      </c>
+      <c r="X54" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>93.5</v>
+      </c>
+      <c r="E55">
+        <v>93.4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>14.6</v>
+      </c>
+      <c r="H55">
+        <v>559.04999999999995</v>
+      </c>
+      <c r="I55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>6</v>
+      </c>
+      <c r="R55" t="s">
+        <v>6</v>
+      </c>
+      <c r="T55" t="s">
+        <v>6</v>
+      </c>
+      <c r="U55" t="s">
+        <v>6</v>
+      </c>
+      <c r="V55" t="s">
+        <v>6</v>
+      </c>
+      <c r="W55" t="s">
+        <v>6</v>
+      </c>
+      <c r="X55" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>93.5</v>
+      </c>
+      <c r="E56">
+        <v>93.4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>15.3</v>
+      </c>
+      <c r="H56">
+        <v>559.08000000000004</v>
+      </c>
+      <c r="I56" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" t="s">
+        <v>6</v>
+      </c>
+      <c r="N56" t="s">
+        <v>6</v>
+      </c>
+      <c r="O56" t="s">
+        <v>6</v>
+      </c>
+      <c r="P56" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>6</v>
+      </c>
+      <c r="R56" t="s">
+        <v>6</v>
+      </c>
+      <c r="T56" t="s">
+        <v>6</v>
+      </c>
+      <c r="U56" t="s">
+        <v>6</v>
+      </c>
+      <c r="V56" t="s">
+        <v>6</v>
+      </c>
+      <c r="W56" t="s">
+        <v>6</v>
+      </c>
+      <c r="X56" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>17</v>
+      </c>
+      <c r="B57">
+        <v>93.5</v>
+      </c>
+      <c r="E57">
+        <v>93.4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57">
+        <v>16.3</v>
+      </c>
+      <c r="H57">
+        <v>559.08000000000004</v>
+      </c>
+      <c r="I57" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" t="s">
+        <v>6</v>
+      </c>
+      <c r="L57" t="s">
+        <v>6</v>
+      </c>
+      <c r="M57" t="s">
+        <v>6</v>
+      </c>
+      <c r="N57" t="s">
+        <v>6</v>
+      </c>
+      <c r="O57" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>6</v>
+      </c>
+      <c r="R57" t="s">
+        <v>6</v>
+      </c>
+      <c r="S57" t="s">
+        <v>6</v>
+      </c>
+      <c r="T57" t="s">
+        <v>6</v>
+      </c>
+      <c r="U57" t="s">
+        <v>6</v>
+      </c>
+      <c r="V57" t="s">
+        <v>6</v>
+      </c>
+      <c r="W57" t="s">
+        <v>6</v>
+      </c>
+      <c r="X57" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>17</v>
+      </c>
+      <c r="B58">
+        <v>93.5</v>
+      </c>
+      <c r="E58">
+        <v>93.4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H58">
+        <v>559.08000000000004</v>
+      </c>
+      <c r="I58" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58" t="s">
+        <v>6</v>
+      </c>
+      <c r="N58" t="s">
+        <v>6</v>
+      </c>
+      <c r="O58" t="s">
+        <v>6</v>
+      </c>
+      <c r="P58" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>6</v>
+      </c>
+      <c r="R58" t="s">
+        <v>6</v>
+      </c>
+      <c r="T58" t="s">
+        <v>6</v>
+      </c>
+      <c r="U58" t="s">
+        <v>6</v>
+      </c>
+      <c r="V58" t="s">
+        <v>6</v>
+      </c>
+      <c r="W58" t="s">
+        <v>6</v>
+      </c>
+      <c r="X58" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>93.5</v>
+      </c>
+      <c r="E59">
+        <v>93.4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H59">
+        <v>559.11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" t="s">
+        <v>6</v>
+      </c>
+      <c r="M59" t="s">
+        <v>6</v>
+      </c>
+      <c r="N59" t="s">
+        <v>6</v>
+      </c>
+      <c r="O59" t="s">
+        <v>6</v>
+      </c>
+      <c r="P59" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>6</v>
+      </c>
+      <c r="R59" t="s">
+        <v>6</v>
+      </c>
+      <c r="S59" t="s">
+        <v>6</v>
+      </c>
+      <c r="T59" t="s">
+        <v>6</v>
+      </c>
+      <c r="U59" t="s">
+        <v>6</v>
+      </c>
+      <c r="V59" t="s">
+        <v>6</v>
+      </c>
+      <c r="W59" t="s">
+        <v>6</v>
+      </c>
+      <c r="X59" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>93.5</v>
+      </c>
+      <c r="E60">
+        <v>93.4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <v>18.2</v>
+      </c>
+      <c r="H60">
+        <v>559.11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60" t="s">
+        <v>6</v>
+      </c>
+      <c r="M60" t="s">
+        <v>6</v>
+      </c>
+      <c r="N60" t="s">
+        <v>6</v>
+      </c>
+      <c r="O60" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>6</v>
+      </c>
+      <c r="R60" t="s">
+        <v>6</v>
+      </c>
+      <c r="S60" t="s">
+        <v>6</v>
+      </c>
+      <c r="T60" t="s">
+        <v>6</v>
+      </c>
+      <c r="U60" t="s">
+        <v>6</v>
+      </c>
+      <c r="V60" t="s">
+        <v>6</v>
+      </c>
+      <c r="W60" t="s">
+        <v>6</v>
+      </c>
+      <c r="X60" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>19</v>
+      </c>
+      <c r="B61">
+        <v>93.5</v>
+      </c>
+      <c r="E61">
+        <v>93.4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>20</v>
+      </c>
+      <c r="H61">
+        <v>559.14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" t="s">
+        <v>6</v>
+      </c>
+      <c r="L61" t="s">
+        <v>6</v>
+      </c>
+      <c r="M61" t="s">
+        <v>6</v>
+      </c>
+      <c r="N61" t="s">
+        <v>6</v>
+      </c>
+      <c r="O61" t="s">
+        <v>6</v>
+      </c>
+      <c r="P61" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>6</v>
+      </c>
+      <c r="R61" t="s">
+        <v>6</v>
+      </c>
+      <c r="S61" t="s">
+        <v>6</v>
+      </c>
+      <c r="T61" t="s">
+        <v>6</v>
+      </c>
+      <c r="U61" t="s">
+        <v>6</v>
+      </c>
+      <c r="V61" t="s">
+        <v>6</v>
+      </c>
+      <c r="W61" t="s">
+        <v>6</v>
+      </c>
+      <c r="X61" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>